--- a/data/trans_orig/Q03B_FES-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Habitat-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7869806956987526</v>
+        <v>0.7868138715657825</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.397376936548604</v>
+        <v>1.411448970531823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.584718402824731</v>
+        <v>1.572123748275833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.242669798515057</v>
+        <v>3.23781392233376</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.582843867448956</v>
+        <v>3.596019144061371</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.466672514281184</v>
+        <v>3.449896785920911</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.04074037045654</v>
+        <v>2.051353583891094</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.53096790986197</v>
+        <v>2.535239401438201</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.556776672461688</v>
+        <v>2.55401284853734</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.004313567718503</v>
+        <v>1.004667262223235</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.682270930077169</v>
+        <v>1.660887608751716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.850089171657453</v>
+        <v>1.83151172120574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.628385937384769</v>
+        <v>3.633351277772454</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.952414915480799</v>
+        <v>3.958340405336283</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.795730805018954</v>
+        <v>3.78849344963922</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.305451726815917</v>
+        <v>2.308959693729256</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.80026967867456</v>
+        <v>2.786459481645707</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.794964839685608</v>
+        <v>2.797126229539082</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.09627329476684</v>
+        <v>1.101563787255548</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.350100079255872</v>
+        <v>1.351468225027983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.697698724143775</v>
+        <v>1.699962227822138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.430906995197494</v>
+        <v>3.434495900075227</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.403902398754012</v>
+        <v>3.396245360707729</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.451792057167841</v>
+        <v>3.444648097045214</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.275426114654497</v>
+        <v>2.269206345884075</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.407155213321145</v>
+        <v>2.411054413218402</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.610088580921431</v>
+        <v>2.599388515352289</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.315336368924527</v>
+        <v>1.309895373410253</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.562888583339812</v>
+        <v>1.586383624676601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.915696695930557</v>
+        <v>1.927838809658019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.754356823143513</v>
+        <v>3.750357676987808</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.709639409216874</v>
+        <v>3.712190087751023</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.728444311924435</v>
+        <v>3.735801518986379</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.50449840259885</v>
+        <v>2.501064436606745</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.612879092780775</v>
+        <v>2.628895909418376</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.80388711949311</v>
+        <v>2.799475043172846</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.646915646317885</v>
+        <v>1.673744148852174</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.291471895773151</v>
+        <v>1.289302291953785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.279325612925303</v>
+        <v>1.27968940752477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.686834659312446</v>
+        <v>3.702503629689895</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.07802823698606</v>
+        <v>3.10161001956949</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.109736752625593</v>
+        <v>3.092166914681712</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.721315534969758</v>
+        <v>2.730164938567274</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.229640150703618</v>
+        <v>2.225374473520712</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.263552438332651</v>
+        <v>2.262504463600248</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.031279193166649</v>
+        <v>2.050490384705621</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.51396173911063</v>
+        <v>1.512409861878785</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.477469767842575</v>
+        <v>1.485862697808978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.073268135343127</v>
+        <v>4.062446146666162</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.402415390024901</v>
+        <v>3.404585366851213</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.412451775826862</v>
+        <v>3.407621741471524</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.004559784058582</v>
+        <v>3.010807114569952</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.450787082021287</v>
+        <v>2.438219554498325</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.494811761107048</v>
+        <v>2.485954670038764</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.513959038613918</v>
+        <v>1.507706427638523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.441593293941857</v>
+        <v>1.451333787760992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.761989775440462</v>
+        <v>1.756592827335196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.196859836984398</v>
+        <v>3.209718261034486</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.88989161400827</v>
+        <v>2.861732561554967</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.019487336022908</v>
+        <v>3.030212729078225</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.431041307516595</v>
+        <v>2.44055743325068</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.228323642871469</v>
+        <v>2.228350821178174</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.446773553521678</v>
+        <v>2.44800796682834</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.78858440568073</v>
+        <v>1.801066995448741</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.652387307659339</v>
+        <v>1.651064151783331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.95123514285229</v>
+        <v>1.941850134959798</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.499168600835761</v>
+        <v>3.529163262943083</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.138404458278294</v>
+        <v>3.126764354210127</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.286515592379451</v>
+        <v>3.28884981930708</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.645890775935064</v>
+        <v>2.662666438467748</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.398800050154378</v>
+        <v>2.4029116360822</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.635293724157695</v>
+        <v>2.631288498421598</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.330327135719688</v>
+        <v>1.326867221628234</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.428548374303939</v>
+        <v>1.433106770451055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.645638228192951</v>
+        <v>1.650219788829972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.454378516006998</v>
+        <v>3.46057966943599</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.290248245080118</v>
+        <v>3.289554788369473</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.317441615313623</v>
+        <v>3.317365681875129</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.426104290587473</v>
+        <v>2.425791652793555</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.394038190498093</v>
+        <v>2.393633520203317</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.528315444357102</v>
+        <v>2.524067431344988</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.4599589158911</v>
+        <v>1.467558949277577</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.536635394008077</v>
+        <v>1.544762673407761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.76123066056227</v>
+        <v>1.759940973633139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.624379279829052</v>
+        <v>3.627129492211294</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.447643114162893</v>
+        <v>3.43768838461219</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.462577036557517</v>
+        <v>3.470328699680549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.551039140453277</v>
+        <v>2.550698753374701</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.505080162974613</v>
+        <v>2.496274346364142</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.632803802593389</v>
+        <v>2.634575017866537</v>
       </c>
     </row>
     <row r="19">
